--- a/Data/race v.2.xlsx
+++ b/Data/race v.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Desktop/Data/race/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Desktop/EIExitbyRace/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F2215-0EA7-E247-B5F3-B2496643DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914672AE-EA07-984C-B1ED-D535ACDFABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="5040" windowWidth="21600" windowHeight="15900" xr2:uid="{1EA0D511-E3B1-4D4B-AFF6-A41D55739002}"/>
+    <workbookView xWindow="5740" yWindow="6560" windowWidth="24340" windowHeight="15900" xr2:uid="{1EA0D511-E3B1-4D4B-AFF6-A41D55739002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -274,13 +274,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -298,10 +295,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +654,7 @@
       <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="10" t="s">
